--- a/templates/plantilla.xlsx
+++ b/templates/plantilla.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capacitacion\Documents\github\xlsx2skos\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF57CFB-2CF8-432C-B715-E92ECF88D038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="ford_ocde" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>namespace</t>
   </si>
@@ -81,13 +80,19 @@
   </si>
   <si>
     <t>http://purl.org/concytec-pe/ford_ocde/01_02</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Campos de la Investigación y el desarrollo (OCDE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -128,6 +133,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -152,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -162,6 +174,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,17 +488,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -495,75 +508,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -571,9 +576,25 @@
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
